--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188B3B6-017D-4CA6-A028-1EC4A4A44FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64204B40-D2A7-4F2C-8E09-B766FB35D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Keyword</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve"> J02 - J02 </t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
   </si>
 </sst>
 </file>
@@ -591,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7908BCD2-227C-44D5-BFDD-3C1E61FB2E24}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,13 +647,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -658,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -669,13 +675,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -683,13 +689,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -697,42 +703,48 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -740,7 +752,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -756,7 +768,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -764,6 +776,9 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -788,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB0F954-B072-402F-ACD8-29BAEE533CC4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64204B40-D2A7-4F2C-8E09-B766FB35D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D43589-C152-443F-9823-5218758B7C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Keyword</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_pca</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7908BCD2-227C-44D5-BFDD-3C1E61FB2E24}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,27 +653,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -678,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -689,13 +693,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -703,13 +707,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -717,42 +721,48 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -760,7 +770,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -776,7 +786,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -784,6 +794,9 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -792,6 +805,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB0F954-B072-402F-ACD8-29BAEE533CC4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
